--- a/medicine/Enfance/Zaü/Zaü.xlsx
+++ b/medicine/Enfance/Zaü/Zaü.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Za%C3%BC</t>
+          <t>Zaü</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zaü, nom de plume d’André Langevin, est un illustrateur français, né à Rennes le 25 avril 1943[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zaü, nom de plume d’André Langevin, est un illustrateur français, né à Rennes le 25 avril 1943.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Za%C3%BC</t>
+          <t>Zaü</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zaü travaille d'abord dans la publicité, puis publie son premier album jeunesse en 1966 à l'École des loisirs. Il a ensuite illustré de nombreux ouvrages destinés à la jeunesse, collaborant notamment aux Éditions Bayard et à Rue du monde. 
 Il a reçu en 2011 le Grand prix de l'illustration pour l'album documentaire Mandela, l'Africain multicolore, sur un texte d'Alain Serres (Rue du monde).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Za%C3%BC</t>
+          <t>Zaü</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Mandela, l'Africain multicolore, avec Alain Serres, Rue du monde, 2010 ; et rééd.
